--- a/Project Development Phase/Testing/User acceptance testing/Testcases Report.xlsx
+++ b/Project Development Phase/Testing/User acceptance testing/Testcases Report.xlsx
@@ -7,11 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
+    <sheet name="Global sales Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="Testscearnios" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -419,6 +418,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,9 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2050,84 +2049,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="11">
         <v>44879</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2189,7 +2188,7 @@
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2221,7 +2220,7 @@
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2429,7 +2428,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
